--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Oxt-Avpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05199733333333334</v>
+        <v>0.3742546666666667</v>
       </c>
       <c r="H2">
-        <v>0.155992</v>
+        <v>1.122764</v>
       </c>
       <c r="I2">
-        <v>0.05749835420950085</v>
+        <v>0.1608133163653707</v>
       </c>
       <c r="J2">
-        <v>0.05749835420950085</v>
+        <v>0.1608133163653707</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1218863333333333</v>
+        <v>1.413581</v>
       </c>
       <c r="N2">
-        <v>0.365659</v>
+        <v>4.240743</v>
       </c>
       <c r="O2">
-        <v>0.009167638293735533</v>
+        <v>0.09833963373559486</v>
       </c>
       <c r="P2">
-        <v>0.009167638293735535</v>
+        <v>0.09833963373559487</v>
       </c>
       <c r="Q2">
-        <v>0.006337764303111112</v>
+        <v>0.5290392859613333</v>
       </c>
       <c r="R2">
-        <v>0.05703987872800001</v>
+        <v>4.761353573652</v>
       </c>
       <c r="S2">
-        <v>0.0005271241138777897</v>
+        <v>0.0158143226311769</v>
       </c>
       <c r="T2">
-        <v>0.0005271241138777898</v>
+        <v>0.0158143226311769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05199733333333334</v>
+        <v>0.3742546666666667</v>
       </c>
       <c r="H3">
-        <v>0.155992</v>
+        <v>1.122764</v>
       </c>
       <c r="I3">
-        <v>0.05749835420950085</v>
+        <v>0.1608133163653707</v>
       </c>
       <c r="J3">
-        <v>0.05749835420950085</v>
+        <v>0.1608133163653707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>31.106942</v>
       </c>
       <c r="O3">
-        <v>0.7798992850721853</v>
+        <v>0.7213465383104783</v>
       </c>
       <c r="P3">
-        <v>0.7798992850721854</v>
+        <v>0.7213465383104783</v>
       </c>
       <c r="Q3">
-        <v>0.5391593440515556</v>
+        <v>3.880639403076445</v>
       </c>
       <c r="R3">
-        <v>4.852434096464001</v>
+        <v>34.92575462768801</v>
       </c>
       <c r="S3">
-        <v>0.04484292534081699</v>
+        <v>0.116002129074388</v>
       </c>
       <c r="T3">
-        <v>0.044842925340817</v>
+        <v>0.116002129074388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05199733333333334</v>
+        <v>0.3742546666666667</v>
       </c>
       <c r="H4">
-        <v>0.155992</v>
+        <v>1.122764</v>
       </c>
       <c r="I4">
-        <v>0.05749835420950085</v>
+        <v>0.1608133163653707</v>
       </c>
       <c r="J4">
-        <v>0.05749835420950085</v>
+        <v>0.1608133163653707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.804414666666667</v>
+        <v>2.591917333333333</v>
       </c>
       <c r="N4">
-        <v>8.413244000000001</v>
+        <v>7.775751999999999</v>
       </c>
       <c r="O4">
-        <v>0.2109330766340791</v>
+        <v>0.1803138279539267</v>
       </c>
       <c r="P4">
-        <v>0.2109330766340791</v>
+        <v>0.1803138279539267</v>
       </c>
       <c r="Q4">
-        <v>0.1458220842275556</v>
+        <v>0.9700371576142222</v>
       </c>
       <c r="R4">
-        <v>1.312398758048</v>
+        <v>8.730334418527999</v>
       </c>
       <c r="S4">
-        <v>0.01212830475480606</v>
+        <v>0.02899686465980585</v>
       </c>
       <c r="T4">
-        <v>0.01212830475480607</v>
+        <v>0.02899686465980585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -732,40 +735,40 @@
         <v>0.677503</v>
       </c>
       <c r="I5">
-        <v>0.2497263159136331</v>
+        <v>0.09703865129046511</v>
       </c>
       <c r="J5">
-        <v>0.2497263159136331</v>
+        <v>0.09703865129046511</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1218863333333333</v>
+        <v>1.413581</v>
       </c>
       <c r="N5">
-        <v>0.365659</v>
+        <v>4.240743</v>
       </c>
       <c r="O5">
-        <v>0.009167638293735533</v>
+        <v>0.09833963373559486</v>
       </c>
       <c r="P5">
-        <v>0.009167638293735535</v>
+        <v>0.09833963373559487</v>
       </c>
       <c r="Q5">
-        <v>0.02752611883077778</v>
+        <v>0.3192351227476666</v>
       </c>
       <c r="R5">
-        <v>0.247735069477</v>
+        <v>2.873116104729</v>
       </c>
       <c r="S5">
-        <v>0.002289400536723319</v>
+        <v>0.009542745426100448</v>
       </c>
       <c r="T5">
-        <v>0.00228940053672332</v>
+        <v>0.00954274542610045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -794,10 +797,10 @@
         <v>0.677503</v>
       </c>
       <c r="I6">
-        <v>0.2497263159136331</v>
+        <v>0.09703865129046511</v>
       </c>
       <c r="J6">
-        <v>0.2497263159136331</v>
+        <v>0.09703865129046511</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +815,10 @@
         <v>31.106942</v>
       </c>
       <c r="O6">
-        <v>0.7798992850721853</v>
+        <v>0.7213465383104783</v>
       </c>
       <c r="P6">
-        <v>0.7798992850721854</v>
+        <v>0.7213465383104783</v>
       </c>
       <c r="Q6">
         <v>2.341671836202889</v>
@@ -824,10 +827,10 @@
         <v>21.075046525826</v>
       </c>
       <c r="S6">
-        <v>0.1947613752447531</v>
+        <v>0.06999849519069465</v>
       </c>
       <c r="T6">
-        <v>0.1947613752447531</v>
+        <v>0.06999849519069465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -856,10 +859,10 @@
         <v>0.677503</v>
       </c>
       <c r="I7">
-        <v>0.2497263159136331</v>
+        <v>0.09703865129046511</v>
       </c>
       <c r="J7">
-        <v>0.2497263159136331</v>
+        <v>0.09703865129046511</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.804414666666667</v>
+        <v>2.591917333333333</v>
       </c>
       <c r="N7">
-        <v>8.413244000000001</v>
+        <v>7.775751999999999</v>
       </c>
       <c r="O7">
-        <v>0.2109330766340791</v>
+        <v>0.1803138279539267</v>
       </c>
       <c r="P7">
-        <v>0.2109330766340791</v>
+        <v>0.1803138279539267</v>
       </c>
       <c r="Q7">
-        <v>0.6333331166368888</v>
+        <v>0.5853439230284444</v>
       </c>
       <c r="R7">
-        <v>5.699998049732</v>
+        <v>5.268095307255999</v>
       </c>
       <c r="S7">
-        <v>0.0526755401321566</v>
+        <v>0.01749741067367002</v>
       </c>
       <c r="T7">
-        <v>0.0526755401321566</v>
+        <v>0.01749741067367002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.197697</v>
+        <v>0.5591360000000001</v>
       </c>
       <c r="H8">
-        <v>0.5930909999999999</v>
+        <v>1.677408</v>
       </c>
       <c r="I8">
-        <v>0.2186122134241952</v>
+        <v>0.2402548918364</v>
       </c>
       <c r="J8">
-        <v>0.2186122134241952</v>
+        <v>0.2402548918364</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1218863333333333</v>
+        <v>1.413581</v>
       </c>
       <c r="N8">
-        <v>0.365659</v>
+        <v>4.240743</v>
       </c>
       <c r="O8">
-        <v>0.009167638293735533</v>
+        <v>0.09833963373559486</v>
       </c>
       <c r="P8">
-        <v>0.009167638293735535</v>
+        <v>0.09833963373559487</v>
       </c>
       <c r="Q8">
-        <v>0.024096562441</v>
+        <v>0.7903840260160001</v>
       </c>
       <c r="R8">
-        <v>0.216869061969</v>
+        <v>7.113456234144001</v>
       </c>
       <c r="S8">
-        <v>0.002004157699265937</v>
+        <v>0.02362657806637654</v>
       </c>
       <c r="T8">
-        <v>0.002004157699265938</v>
+        <v>0.02362657806637654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +962,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.197697</v>
+        <v>0.5591360000000001</v>
       </c>
       <c r="H9">
-        <v>0.5930909999999999</v>
+        <v>1.677408</v>
       </c>
       <c r="I9">
-        <v>0.2186122134241952</v>
+        <v>0.2402548918364</v>
       </c>
       <c r="J9">
-        <v>0.2186122134241952</v>
+        <v>0.2402548918364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +1001,22 @@
         <v>31.106942</v>
       </c>
       <c r="O9">
-        <v>0.7798992850721853</v>
+        <v>0.7213465383104783</v>
       </c>
       <c r="P9">
-        <v>0.7798992850721854</v>
+        <v>0.7213465383104783</v>
       </c>
       <c r="Q9">
-        <v>2.049916370858</v>
+        <v>5.797670374037335</v>
       </c>
       <c r="R9">
-        <v>18.449247337722</v>
+        <v>52.17903336633601</v>
       </c>
       <c r="S9">
-        <v>0.1704955089575779</v>
+        <v>0.1733070345383456</v>
       </c>
       <c r="T9">
-        <v>0.1704955089575779</v>
+        <v>0.1733070345383456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1024,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.197697</v>
+        <v>0.5591360000000001</v>
       </c>
       <c r="H10">
-        <v>0.5930909999999999</v>
+        <v>1.677408</v>
       </c>
       <c r="I10">
-        <v>0.2186122134241952</v>
+        <v>0.2402548918364</v>
       </c>
       <c r="J10">
-        <v>0.2186122134241952</v>
+        <v>0.2402548918364</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.804414666666667</v>
+        <v>2.591917333333333</v>
       </c>
       <c r="N10">
-        <v>8.413244000000001</v>
+        <v>7.775751999999999</v>
       </c>
       <c r="O10">
-        <v>0.2109330766340791</v>
+        <v>0.1803138279539267</v>
       </c>
       <c r="P10">
-        <v>0.2109330766340791</v>
+        <v>0.1803138279539267</v>
       </c>
       <c r="Q10">
-        <v>0.554424366356</v>
+        <v>1.449234290090667</v>
       </c>
       <c r="R10">
-        <v>4.989819297204</v>
+        <v>13.043108610816</v>
       </c>
       <c r="S10">
-        <v>0.04611254676735142</v>
+        <v>0.04332127923167791</v>
       </c>
       <c r="T10">
-        <v>0.04611254676735142</v>
+        <v>0.04332127923167791</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1053596666666667</v>
+        <v>0.016187</v>
       </c>
       <c r="H11">
-        <v>0.316079</v>
+        <v>0.048561</v>
       </c>
       <c r="I11">
-        <v>0.1165061176226013</v>
+        <v>0.006955384618689919</v>
       </c>
       <c r="J11">
-        <v>0.1165061176226013</v>
+        <v>0.006955384618689919</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1218863333333333</v>
+        <v>1.413581</v>
       </c>
       <c r="N11">
-        <v>0.365659</v>
+        <v>4.240743</v>
       </c>
       <c r="O11">
-        <v>0.009167638293735533</v>
+        <v>0.09833963373559486</v>
       </c>
       <c r="P11">
-        <v>0.009167638293735535</v>
+        <v>0.09833963373559487</v>
       </c>
       <c r="Q11">
-        <v>0.01284190345122222</v>
+        <v>0.022881635647</v>
       </c>
       <c r="R11">
-        <v>0.115577131061</v>
+        <v>0.205934720823</v>
       </c>
       <c r="S11">
-        <v>0.001068085945371416</v>
+        <v>0.0006839899758921568</v>
       </c>
       <c r="T11">
-        <v>0.001068085945371416</v>
+        <v>0.0006839899758921569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1148,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1053596666666667</v>
+        <v>0.016187</v>
       </c>
       <c r="H12">
-        <v>0.316079</v>
+        <v>0.048561</v>
       </c>
       <c r="I12">
-        <v>0.1165061176226013</v>
+        <v>0.006955384618689919</v>
       </c>
       <c r="J12">
-        <v>0.1165061176226013</v>
+        <v>0.006955384618689919</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1187,22 @@
         <v>31.106942</v>
       </c>
       <c r="O12">
-        <v>0.7798992850721853</v>
+        <v>0.7213465383104783</v>
       </c>
       <c r="P12">
-        <v>0.7798992850721854</v>
+        <v>0.7213465383104783</v>
       </c>
       <c r="Q12">
-        <v>1.092472346713111</v>
+        <v>0.1678426900513333</v>
       </c>
       <c r="R12">
-        <v>9.832251120418</v>
+        <v>1.510584210462</v>
       </c>
       <c r="S12">
-        <v>0.09086303784040266</v>
+        <v>0.005017242617309919</v>
       </c>
       <c r="T12">
-        <v>0.09086303784040267</v>
+        <v>0.005017242617309919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1210,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1053596666666667</v>
+        <v>0.016187</v>
       </c>
       <c r="H13">
-        <v>0.316079</v>
+        <v>0.048561</v>
       </c>
       <c r="I13">
-        <v>0.1165061176226013</v>
+        <v>0.006955384618689919</v>
       </c>
       <c r="J13">
-        <v>0.1165061176226013</v>
+        <v>0.006955384618689919</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.804414666666667</v>
+        <v>2.591917333333333</v>
       </c>
       <c r="N13">
-        <v>8.413244000000001</v>
+        <v>7.775751999999999</v>
       </c>
       <c r="O13">
-        <v>0.2109330766340791</v>
+        <v>0.1803138279539267</v>
       </c>
       <c r="P13">
-        <v>0.2109330766340791</v>
+        <v>0.1803138279539267</v>
       </c>
       <c r="Q13">
-        <v>0.2954721944751111</v>
+        <v>0.04195536587466666</v>
       </c>
       <c r="R13">
-        <v>2.659249750276</v>
+        <v>0.3775982928719999</v>
       </c>
       <c r="S13">
-        <v>0.02457499383682718</v>
+        <v>0.001254152025487842</v>
       </c>
       <c r="T13">
-        <v>0.02457499383682719</v>
+        <v>0.001254152025487842</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.323439</v>
+        <v>0.3663163333333333</v>
       </c>
       <c r="H14">
-        <v>0.9703169999999999</v>
+        <v>1.098949</v>
       </c>
       <c r="I14">
-        <v>0.3576569988300696</v>
+        <v>0.1574022975499818</v>
       </c>
       <c r="J14">
-        <v>0.3576569988300696</v>
+        <v>0.1574022975499818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1218863333333333</v>
+        <v>1.413581</v>
       </c>
       <c r="N14">
-        <v>0.365659</v>
+        <v>4.240743</v>
       </c>
       <c r="O14">
-        <v>0.009167638293735533</v>
+        <v>0.09833963373559486</v>
       </c>
       <c r="P14">
-        <v>0.009167638293735535</v>
+        <v>0.09833963373559487</v>
       </c>
       <c r="Q14">
-        <v>0.039422793767</v>
+        <v>0.5178178087896667</v>
       </c>
       <c r="R14">
-        <v>0.3548051439029999</v>
+        <v>4.660360279107</v>
       </c>
       <c r="S14">
-        <v>0.003278869998497071</v>
+        <v>0.01547888429020633</v>
       </c>
       <c r="T14">
-        <v>0.003278869998497072</v>
+        <v>0.01547888429020634</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1334,31 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.323439</v>
+        <v>0.3663163333333333</v>
       </c>
       <c r="H15">
-        <v>0.9703169999999999</v>
+        <v>1.098949</v>
       </c>
       <c r="I15">
-        <v>0.3576569988300696</v>
+        <v>0.1574022975499818</v>
       </c>
       <c r="J15">
-        <v>0.3576569988300696</v>
+        <v>0.1574022975499818</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1373,22 @@
         <v>31.106942</v>
       </c>
       <c r="O15">
-        <v>0.7798992850721853</v>
+        <v>0.7213465383104783</v>
       </c>
       <c r="P15">
-        <v>0.7798992850721854</v>
+        <v>0.7213465383104783</v>
       </c>
       <c r="Q15">
-        <v>3.353732737846</v>
+        <v>3.798326978217555</v>
       </c>
       <c r="R15">
-        <v>30.183594640614</v>
+        <v>34.184942803958</v>
       </c>
       <c r="S15">
-        <v>0.2789364376886347</v>
+        <v>0.1135416024597953</v>
       </c>
       <c r="T15">
-        <v>0.2789364376886347</v>
+        <v>0.1135416024597953</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1396,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.323439</v>
+        <v>0.3663163333333333</v>
       </c>
       <c r="H16">
-        <v>0.9703169999999999</v>
+        <v>1.098949</v>
       </c>
       <c r="I16">
-        <v>0.3576569988300696</v>
+        <v>0.1574022975499818</v>
       </c>
       <c r="J16">
-        <v>0.3576569988300696</v>
+        <v>0.1574022975499818</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1429,214 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.804414666666667</v>
+        <v>2.591917333333333</v>
       </c>
       <c r="N16">
-        <v>8.413244000000001</v>
+        <v>7.775751999999999</v>
       </c>
       <c r="O16">
-        <v>0.2109330766340791</v>
+        <v>0.1803138279539267</v>
       </c>
       <c r="P16">
-        <v>0.2109330766340791</v>
+        <v>0.1803138279539267</v>
       </c>
       <c r="Q16">
-        <v>0.907057075372</v>
+        <v>0.9494616538497775</v>
       </c>
       <c r="R16">
-        <v>8.163513678348</v>
+        <v>8.545154884647998</v>
       </c>
       <c r="S16">
-        <v>0.07544169114293781</v>
+        <v>0.02838181079998021</v>
       </c>
       <c r="T16">
-        <v>0.07544169114293782</v>
+        <v>0.02838181079998021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7855333333333334</v>
+      </c>
+      <c r="H17">
+        <v>2.3566</v>
+      </c>
+      <c r="I17">
+        <v>0.3375354583390924</v>
+      </c>
+      <c r="J17">
+        <v>0.3375354583390924</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.413581</v>
+      </c>
+      <c r="N17">
+        <v>4.240743</v>
+      </c>
+      <c r="O17">
+        <v>0.09833963373559486</v>
+      </c>
+      <c r="P17">
+        <v>0.09833963373559487</v>
+      </c>
+      <c r="Q17">
+        <v>1.110414994866667</v>
+      </c>
+      <c r="R17">
+        <v>9.993734953800001</v>
+      </c>
+      <c r="S17">
+        <v>0.03319311334584248</v>
+      </c>
+      <c r="T17">
+        <v>0.03319311334584248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7855333333333334</v>
+      </c>
+      <c r="H18">
+        <v>2.3566</v>
+      </c>
+      <c r="I18">
+        <v>0.3375354583390924</v>
+      </c>
+      <c r="J18">
+        <v>0.3375354583390924</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.36898066666667</v>
+      </c>
+      <c r="N18">
+        <v>31.106942</v>
+      </c>
+      <c r="O18">
+        <v>0.7213465383104783</v>
+      </c>
+      <c r="P18">
+        <v>0.7213465383104783</v>
+      </c>
+      <c r="Q18">
+        <v>8.145179946355556</v>
+      </c>
+      <c r="R18">
+        <v>73.30661951720002</v>
+      </c>
+      <c r="S18">
+        <v>0.243480034429945</v>
+      </c>
+      <c r="T18">
+        <v>0.243480034429945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7855333333333334</v>
+      </c>
+      <c r="H19">
+        <v>2.3566</v>
+      </c>
+      <c r="I19">
+        <v>0.3375354583390924</v>
+      </c>
+      <c r="J19">
+        <v>0.3375354583390924</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.591917333333333</v>
+      </c>
+      <c r="N19">
+        <v>7.775751999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1803138279539267</v>
+      </c>
+      <c r="P19">
+        <v>0.1803138279539267</v>
+      </c>
+      <c r="Q19">
+        <v>2.036037462577778</v>
+      </c>
+      <c r="R19">
+        <v>18.3243371632</v>
+      </c>
+      <c r="S19">
+        <v>0.06086231056330491</v>
+      </c>
+      <c r="T19">
+        <v>0.06086231056330491</v>
       </c>
     </row>
   </sheetData>
